--- a/memelist.xlsx
+++ b/memelist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/applemacbook/Documents/satisfaction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3777188B-8E88-5747-B9B0-22DB3CDC1BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9091C6B3-B350-5040-891E-2F85DB8D2E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6100" yWindow="22100" windowWidth="28300" windowHeight="16460" xr2:uid="{2EAC7AD6-B088-9245-B692-51A3248822AC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="81">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -347,6 +347,18 @@
   </si>
   <si>
     <t>keyNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떻게 지평좌표계로 고정하셨죠, 지평좌표계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동그란 맘속에 피어난 How is the Life, 동그란 맘, 동그란 맘 속에 피어난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실패작 소녀, 나는 실패작이야</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -716,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCB8D43-1A06-0F4A-971C-AC2A617948FC}">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -793,7 +805,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -1079,7 +1091,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="C33">
         <v>31</v>
@@ -1255,7 +1267,7 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="C49">
         <v>47</v>
